--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -210,6 +210,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">O.H. 03/04/2025</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -598,6 +601,9 @@
   </si>
   <si>
     <t xml:space="preserve">Given I am logged in, when I click add on a need, it will update my basket with the new need.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.D. 03/05/2025</t>
   </si>
   <si>
     <t xml:space="preserve">As a Helper, I want to remove a need from my funding basket so that I can update my funding preferences.
@@ -613,6 +619,9 @@
     <t xml:space="preserve">Given I enter valid credentials, when I press login, I should see my basket.</t>
   </si>
   <si>
+    <t xml:space="preserve">L.W 03/13/2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Given I enter invalid credentials, when I press login, I expect to see an error message.</t>
   </si>
   <si>
@@ -622,12 +631,18 @@
     <t xml:space="preserve">Given I enter valid credentials, when I press login, I should see the organization's cupboard.</t>
   </si>
   <si>
+    <t xml:space="preserve">A.L 03/14/2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a Helper, I want to be able to search for needs so I can find a specific need quickly.</t>
   </si>
   <si>
     <t xml:space="preserve">Given a need exists when I search for that need I expect the need to be previewed</t>
   </si>
   <si>
+    <t xml:space="preserve">O.H 03/06/2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Given a need does not exist when I search for a nonexistent need then I expect a return of nothing found</t>
   </si>
   <si>
@@ -637,7 +652,16 @@
     <t xml:space="preserve">Given I submit a request to remove a product that has already been fulfilled or outdated when the product exists then the product should be removed from the cupboard and the system should return a status code of 200 (OK)</t>
   </si>
   <si>
+    <t xml:space="preserve">V.U. 03/07/2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Given I submit a request to remove a product that has already been fulfilled or outdated when the product does not exist then the system should return a status code of 404 (NOT FOUND).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V.U 03/07/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L.W 03/15/2025</t>
   </si>
 </sst>
 </file>
@@ -758,7 +782,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -801,10 +825,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1154,8 +1174,8 @@
   </sheetPr>
   <dimension ref="A1:F591"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1197,3620 +1217,2491 @@
         <v>12</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
+      <c r="B7" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9"/>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9"/>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9"/>
       <c r="B14" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="D14" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9"/>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
+      <c r="D16" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
+      <c r="D17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
+      <c r="D18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
       <c r="E33" s="10"/>
-      <c r="F33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
       <c r="E39" s="10"/>
-      <c r="F39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
       <c r="E40" s="10"/>
-      <c r="F40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
       <c r="E41" s="10"/>
-      <c r="F41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="11"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
       <c r="E46" s="10"/>
-      <c r="F46" s="11"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
       <c r="E47" s="10"/>
-      <c r="F47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
       <c r="E49" s="10"/>
-      <c r="F49" s="11"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="10"/>
-      <c r="D50" s="11"/>
       <c r="E50" s="10"/>
-      <c r="F50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="10"/>
-      <c r="D51" s="11"/>
       <c r="E51" s="10"/>
-      <c r="F51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="10"/>
-      <c r="D52" s="11"/>
       <c r="E52" s="10"/>
-      <c r="F52" s="11"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="10"/>
-      <c r="D53" s="11"/>
       <c r="E53" s="10"/>
-      <c r="F53" s="11"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="10"/>
-      <c r="D54" s="11"/>
       <c r="E54" s="10"/>
-      <c r="F54" s="11"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="10"/>
-      <c r="D55" s="11"/>
       <c r="E55" s="10"/>
-      <c r="F55" s="11"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="10"/>
-      <c r="D56" s="11"/>
       <c r="E56" s="10"/>
-      <c r="F56" s="11"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="10"/>
-      <c r="D57" s="11"/>
       <c r="E57" s="10"/>
-      <c r="F57" s="11"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="10"/>
-      <c r="D58" s="11"/>
       <c r="E58" s="10"/>
-      <c r="F58" s="11"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="10"/>
-      <c r="D59" s="11"/>
       <c r="E59" s="10"/>
-      <c r="F59" s="11"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="10"/>
-      <c r="D60" s="11"/>
       <c r="E60" s="10"/>
-      <c r="F60" s="11"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="10"/>
-      <c r="D61" s="11"/>
       <c r="E61" s="10"/>
-      <c r="F61" s="11"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="10"/>
-      <c r="D62" s="11"/>
       <c r="E62" s="10"/>
-      <c r="F62" s="11"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="10"/>
-      <c r="D63" s="11"/>
       <c r="E63" s="10"/>
-      <c r="F63" s="11"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="10"/>
-      <c r="D64" s="11"/>
       <c r="E64" s="10"/>
-      <c r="F64" s="11"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="10"/>
-      <c r="D65" s="11"/>
       <c r="E65" s="10"/>
-      <c r="F65" s="11"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="10"/>
-      <c r="D66" s="11"/>
       <c r="E66" s="10"/>
-      <c r="F66" s="11"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="10"/>
-      <c r="D67" s="11"/>
       <c r="E67" s="10"/>
-      <c r="F67" s="11"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="10"/>
-      <c r="D68" s="11"/>
       <c r="E68" s="10"/>
-      <c r="F68" s="11"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="10"/>
-      <c r="D69" s="11"/>
       <c r="E69" s="10"/>
-      <c r="F69" s="11"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="10"/>
-      <c r="D70" s="11"/>
       <c r="E70" s="10"/>
-      <c r="F70" s="11"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="10"/>
-      <c r="D71" s="11"/>
       <c r="E71" s="10"/>
-      <c r="F71" s="11"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="10"/>
-      <c r="D72" s="11"/>
       <c r="E72" s="10"/>
-      <c r="F72" s="11"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="10"/>
-      <c r="D73" s="11"/>
       <c r="E73" s="10"/>
-      <c r="F73" s="11"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="10"/>
-      <c r="D74" s="11"/>
       <c r="E74" s="10"/>
-      <c r="F74" s="11"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="10"/>
-      <c r="D75" s="11"/>
       <c r="E75" s="10"/>
-      <c r="F75" s="11"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="10"/>
-      <c r="D76" s="11"/>
       <c r="E76" s="10"/>
-      <c r="F76" s="11"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="10"/>
-      <c r="D77" s="11"/>
       <c r="E77" s="10"/>
-      <c r="F77" s="11"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="10"/>
-      <c r="D78" s="11"/>
       <c r="E78" s="10"/>
-      <c r="F78" s="11"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="10"/>
-      <c r="D79" s="11"/>
       <c r="E79" s="10"/>
-      <c r="F79" s="11"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="10"/>
-      <c r="D80" s="11"/>
       <c r="E80" s="10"/>
-      <c r="F80" s="11"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="10"/>
-      <c r="D81" s="11"/>
       <c r="E81" s="10"/>
-      <c r="F81" s="11"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="10"/>
-      <c r="D82" s="11"/>
       <c r="E82" s="10"/>
-      <c r="F82" s="11"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="10"/>
-      <c r="D83" s="11"/>
       <c r="E83" s="10"/>
-      <c r="F83" s="11"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="10"/>
-      <c r="D84" s="11"/>
       <c r="E84" s="10"/>
-      <c r="F84" s="11"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="10"/>
-      <c r="D85" s="11"/>
       <c r="E85" s="10"/>
-      <c r="F85" s="11"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="10"/>
-      <c r="D86" s="11"/>
       <c r="E86" s="10"/>
-      <c r="F86" s="11"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="10"/>
-      <c r="D87" s="11"/>
       <c r="E87" s="10"/>
-      <c r="F87" s="11"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="10"/>
-      <c r="D88" s="11"/>
       <c r="E88" s="10"/>
-      <c r="F88" s="11"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="10"/>
-      <c r="D89" s="11"/>
       <c r="E89" s="10"/>
-      <c r="F89" s="11"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="10"/>
-      <c r="D90" s="11"/>
       <c r="E90" s="10"/>
-      <c r="F90" s="11"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="10"/>
-      <c r="D91" s="11"/>
       <c r="E91" s="10"/>
-      <c r="F91" s="11"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="10"/>
-      <c r="D92" s="11"/>
       <c r="E92" s="10"/>
-      <c r="F92" s="11"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="10"/>
-      <c r="D93" s="11"/>
       <c r="E93" s="10"/>
-      <c r="F93" s="11"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="10"/>
-      <c r="D94" s="11"/>
       <c r="E94" s="10"/>
-      <c r="F94" s="11"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="10"/>
-      <c r="D95" s="11"/>
       <c r="E95" s="10"/>
-      <c r="F95" s="11"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="10"/>
-      <c r="D96" s="11"/>
       <c r="E96" s="10"/>
-      <c r="F96" s="11"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="10"/>
-      <c r="D97" s="11"/>
       <c r="E97" s="10"/>
-      <c r="F97" s="11"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="10"/>
-      <c r="D98" s="11"/>
       <c r="E98" s="10"/>
-      <c r="F98" s="11"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="10"/>
-      <c r="D99" s="11"/>
       <c r="E99" s="10"/>
-      <c r="F99" s="11"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="10"/>
-      <c r="D100" s="11"/>
       <c r="E100" s="10"/>
-      <c r="F100" s="11"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C101" s="10"/>
-      <c r="D101" s="11"/>
       <c r="E101" s="10"/>
-      <c r="F101" s="11"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C102" s="10"/>
-      <c r="D102" s="11"/>
       <c r="E102" s="10"/>
-      <c r="F102" s="11"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C103" s="10"/>
-      <c r="D103" s="11"/>
       <c r="E103" s="10"/>
-      <c r="F103" s="11"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="10"/>
-      <c r="D104" s="11"/>
       <c r="E104" s="10"/>
-      <c r="F104" s="11"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="10"/>
-      <c r="D105" s="11"/>
       <c r="E105" s="10"/>
-      <c r="F105" s="11"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="10"/>
-      <c r="D106" s="11"/>
       <c r="E106" s="10"/>
-      <c r="F106" s="11"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="10"/>
-      <c r="D107" s="11"/>
       <c r="E107" s="10"/>
-      <c r="F107" s="11"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="10"/>
-      <c r="D108" s="11"/>
       <c r="E108" s="10"/>
-      <c r="F108" s="11"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="10"/>
-      <c r="D109" s="11"/>
       <c r="E109" s="10"/>
-      <c r="F109" s="11"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="10"/>
-      <c r="D110" s="11"/>
       <c r="E110" s="10"/>
-      <c r="F110" s="11"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="10"/>
-      <c r="D111" s="11"/>
       <c r="E111" s="10"/>
-      <c r="F111" s="11"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="10"/>
-      <c r="D112" s="11"/>
       <c r="E112" s="10"/>
-      <c r="F112" s="11"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="10"/>
-      <c r="D113" s="11"/>
       <c r="E113" s="10"/>
-      <c r="F113" s="11"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="10"/>
-      <c r="D114" s="11"/>
       <c r="E114" s="10"/>
-      <c r="F114" s="11"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C115" s="10"/>
-      <c r="D115" s="11"/>
       <c r="E115" s="10"/>
-      <c r="F115" s="11"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="10"/>
-      <c r="D116" s="11"/>
       <c r="E116" s="10"/>
-      <c r="F116" s="11"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="10"/>
-      <c r="D117" s="11"/>
       <c r="E117" s="10"/>
-      <c r="F117" s="11"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C118" s="10"/>
-      <c r="D118" s="11"/>
       <c r="E118" s="10"/>
-      <c r="F118" s="11"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C119" s="10"/>
-      <c r="D119" s="11"/>
       <c r="E119" s="10"/>
-      <c r="F119" s="11"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="10"/>
-      <c r="D120" s="11"/>
       <c r="E120" s="10"/>
-      <c r="F120" s="11"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C121" s="10"/>
-      <c r="D121" s="11"/>
       <c r="E121" s="10"/>
-      <c r="F121" s="11"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C122" s="10"/>
-      <c r="D122" s="11"/>
       <c r="E122" s="10"/>
-      <c r="F122" s="11"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C123" s="10"/>
-      <c r="D123" s="11"/>
       <c r="E123" s="10"/>
-      <c r="F123" s="11"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C124" s="10"/>
-      <c r="D124" s="11"/>
       <c r="E124" s="10"/>
-      <c r="F124" s="11"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C125" s="10"/>
-      <c r="D125" s="11"/>
       <c r="E125" s="10"/>
-      <c r="F125" s="11"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C126" s="10"/>
-      <c r="D126" s="11"/>
       <c r="E126" s="10"/>
-      <c r="F126" s="11"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C127" s="10"/>
-      <c r="D127" s="11"/>
       <c r="E127" s="10"/>
-      <c r="F127" s="11"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C128" s="10"/>
-      <c r="D128" s="11"/>
       <c r="E128" s="10"/>
-      <c r="F128" s="11"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C129" s="10"/>
-      <c r="D129" s="11"/>
       <c r="E129" s="10"/>
-      <c r="F129" s="11"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C130" s="10"/>
-      <c r="D130" s="11"/>
       <c r="E130" s="10"/>
-      <c r="F130" s="11"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C131" s="10"/>
-      <c r="D131" s="11"/>
       <c r="E131" s="10"/>
-      <c r="F131" s="11"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C132" s="10"/>
-      <c r="D132" s="11"/>
       <c r="E132" s="10"/>
-      <c r="F132" s="11"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C133" s="10"/>
-      <c r="D133" s="11"/>
       <c r="E133" s="10"/>
-      <c r="F133" s="11"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C134" s="10"/>
-      <c r="D134" s="11"/>
       <c r="E134" s="10"/>
-      <c r="F134" s="11"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C135" s="10"/>
-      <c r="D135" s="11"/>
       <c r="E135" s="10"/>
-      <c r="F135" s="11"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C136" s="10"/>
-      <c r="D136" s="11"/>
       <c r="E136" s="10"/>
-      <c r="F136" s="11"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C137" s="10"/>
-      <c r="D137" s="11"/>
       <c r="E137" s="10"/>
-      <c r="F137" s="11"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C138" s="10"/>
-      <c r="D138" s="11"/>
       <c r="E138" s="10"/>
-      <c r="F138" s="11"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C139" s="10"/>
-      <c r="D139" s="11"/>
       <c r="E139" s="10"/>
-      <c r="F139" s="11"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C140" s="10"/>
-      <c r="D140" s="11"/>
       <c r="E140" s="10"/>
-      <c r="F140" s="11"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C141" s="10"/>
-      <c r="D141" s="11"/>
       <c r="E141" s="10"/>
-      <c r="F141" s="11"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C142" s="10"/>
-      <c r="D142" s="11"/>
       <c r="E142" s="10"/>
-      <c r="F142" s="11"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C143" s="10"/>
-      <c r="D143" s="11"/>
       <c r="E143" s="10"/>
-      <c r="F143" s="11"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C144" s="10"/>
-      <c r="D144" s="11"/>
       <c r="E144" s="10"/>
-      <c r="F144" s="11"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C145" s="10"/>
-      <c r="D145" s="11"/>
       <c r="E145" s="10"/>
-      <c r="F145" s="11"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C146" s="10"/>
-      <c r="D146" s="11"/>
       <c r="E146" s="10"/>
-      <c r="F146" s="11"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C147" s="10"/>
-      <c r="D147" s="11"/>
       <c r="E147" s="10"/>
-      <c r="F147" s="11"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C148" s="10"/>
-      <c r="D148" s="11"/>
       <c r="E148" s="10"/>
-      <c r="F148" s="11"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C149" s="10"/>
-      <c r="D149" s="11"/>
       <c r="E149" s="10"/>
-      <c r="F149" s="11"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C150" s="10"/>
-      <c r="D150" s="11"/>
       <c r="E150" s="10"/>
-      <c r="F150" s="11"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C151" s="10"/>
-      <c r="D151" s="11"/>
       <c r="E151" s="10"/>
-      <c r="F151" s="11"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C152" s="10"/>
-      <c r="D152" s="11"/>
       <c r="E152" s="10"/>
-      <c r="F152" s="11"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C153" s="10"/>
-      <c r="D153" s="11"/>
       <c r="E153" s="10"/>
-      <c r="F153" s="11"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C154" s="10"/>
-      <c r="D154" s="11"/>
       <c r="E154" s="10"/>
-      <c r="F154" s="11"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C155" s="10"/>
-      <c r="D155" s="11"/>
       <c r="E155" s="10"/>
-      <c r="F155" s="11"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C156" s="10"/>
-      <c r="D156" s="11"/>
       <c r="E156" s="10"/>
-      <c r="F156" s="11"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C157" s="10"/>
-      <c r="D157" s="11"/>
       <c r="E157" s="10"/>
-      <c r="F157" s="11"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C158" s="10"/>
-      <c r="D158" s="11"/>
       <c r="E158" s="10"/>
-      <c r="F158" s="11"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C159" s="10"/>
-      <c r="D159" s="11"/>
       <c r="E159" s="10"/>
-      <c r="F159" s="11"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C160" s="10"/>
-      <c r="D160" s="11"/>
       <c r="E160" s="10"/>
-      <c r="F160" s="11"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C161" s="10"/>
-      <c r="D161" s="11"/>
       <c r="E161" s="10"/>
-      <c r="F161" s="11"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C162" s="10"/>
-      <c r="D162" s="11"/>
       <c r="E162" s="10"/>
-      <c r="F162" s="11"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C163" s="10"/>
-      <c r="D163" s="11"/>
       <c r="E163" s="10"/>
-      <c r="F163" s="11"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C164" s="10"/>
-      <c r="D164" s="11"/>
       <c r="E164" s="10"/>
-      <c r="F164" s="11"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C165" s="10"/>
-      <c r="D165" s="11"/>
       <c r="E165" s="10"/>
-      <c r="F165" s="11"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C166" s="10"/>
-      <c r="D166" s="11"/>
       <c r="E166" s="10"/>
-      <c r="F166" s="11"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C167" s="10"/>
-      <c r="D167" s="11"/>
       <c r="E167" s="10"/>
-      <c r="F167" s="11"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C168" s="10"/>
-      <c r="D168" s="11"/>
       <c r="E168" s="10"/>
-      <c r="F168" s="11"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C169" s="10"/>
-      <c r="D169" s="11"/>
       <c r="E169" s="10"/>
-      <c r="F169" s="11"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C170" s="10"/>
-      <c r="D170" s="11"/>
       <c r="E170" s="10"/>
-      <c r="F170" s="11"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C171" s="10"/>
-      <c r="D171" s="11"/>
       <c r="E171" s="10"/>
-      <c r="F171" s="11"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C172" s="10"/>
-      <c r="D172" s="11"/>
       <c r="E172" s="10"/>
-      <c r="F172" s="11"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C173" s="10"/>
-      <c r="D173" s="11"/>
       <c r="E173" s="10"/>
-      <c r="F173" s="11"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C174" s="10"/>
-      <c r="D174" s="11"/>
       <c r="E174" s="10"/>
-      <c r="F174" s="11"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C175" s="10"/>
-      <c r="D175" s="11"/>
       <c r="E175" s="10"/>
-      <c r="F175" s="11"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C176" s="10"/>
-      <c r="D176" s="11"/>
       <c r="E176" s="10"/>
-      <c r="F176" s="11"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C177" s="10"/>
-      <c r="D177" s="11"/>
       <c r="E177" s="10"/>
-      <c r="F177" s="11"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C178" s="10"/>
-      <c r="D178" s="11"/>
       <c r="E178" s="10"/>
-      <c r="F178" s="11"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C179" s="10"/>
-      <c r="D179" s="11"/>
       <c r="E179" s="10"/>
-      <c r="F179" s="11"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C180" s="10"/>
-      <c r="D180" s="11"/>
       <c r="E180" s="10"/>
-      <c r="F180" s="11"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C181" s="10"/>
-      <c r="D181" s="11"/>
       <c r="E181" s="10"/>
-      <c r="F181" s="11"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C182" s="10"/>
-      <c r="D182" s="11"/>
       <c r="E182" s="10"/>
-      <c r="F182" s="11"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C183" s="10"/>
-      <c r="D183" s="11"/>
       <c r="E183" s="10"/>
-      <c r="F183" s="11"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C184" s="10"/>
-      <c r="D184" s="11"/>
       <c r="E184" s="10"/>
-      <c r="F184" s="11"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C185" s="10"/>
-      <c r="D185" s="11"/>
       <c r="E185" s="10"/>
-      <c r="F185" s="11"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C186" s="10"/>
-      <c r="D186" s="11"/>
       <c r="E186" s="10"/>
-      <c r="F186" s="11"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C187" s="10"/>
-      <c r="D187" s="11"/>
       <c r="E187" s="10"/>
-      <c r="F187" s="11"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C188" s="10"/>
-      <c r="D188" s="11"/>
       <c r="E188" s="10"/>
-      <c r="F188" s="11"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C189" s="10"/>
-      <c r="D189" s="11"/>
       <c r="E189" s="10"/>
-      <c r="F189" s="11"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C190" s="10"/>
-      <c r="D190" s="11"/>
       <c r="E190" s="10"/>
-      <c r="F190" s="11"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C191" s="10"/>
-      <c r="D191" s="11"/>
       <c r="E191" s="10"/>
-      <c r="F191" s="11"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C192" s="10"/>
-      <c r="D192" s="11"/>
       <c r="E192" s="10"/>
-      <c r="F192" s="11"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C193" s="10"/>
-      <c r="D193" s="11"/>
       <c r="E193" s="10"/>
-      <c r="F193" s="11"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C194" s="10"/>
-      <c r="D194" s="11"/>
       <c r="E194" s="10"/>
-      <c r="F194" s="11"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C195" s="10"/>
-      <c r="D195" s="11"/>
       <c r="E195" s="10"/>
-      <c r="F195" s="11"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C196" s="10"/>
-      <c r="D196" s="11"/>
       <c r="E196" s="10"/>
-      <c r="F196" s="11"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C197" s="10"/>
-      <c r="D197" s="11"/>
       <c r="E197" s="10"/>
-      <c r="F197" s="11"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C198" s="10"/>
-      <c r="D198" s="11"/>
       <c r="E198" s="10"/>
-      <c r="F198" s="11"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C199" s="10"/>
-      <c r="D199" s="11"/>
       <c r="E199" s="10"/>
-      <c r="F199" s="11"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C200" s="10"/>
-      <c r="D200" s="11"/>
       <c r="E200" s="10"/>
-      <c r="F200" s="11"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C201" s="10"/>
-      <c r="D201" s="11"/>
       <c r="E201" s="10"/>
-      <c r="F201" s="11"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C202" s="10"/>
-      <c r="D202" s="11"/>
       <c r="E202" s="10"/>
-      <c r="F202" s="11"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C203" s="10"/>
-      <c r="D203" s="11"/>
       <c r="E203" s="10"/>
-      <c r="F203" s="11"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C204" s="10"/>
-      <c r="D204" s="11"/>
       <c r="E204" s="10"/>
-      <c r="F204" s="11"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C205" s="10"/>
-      <c r="D205" s="11"/>
       <c r="E205" s="10"/>
-      <c r="F205" s="11"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C206" s="10"/>
-      <c r="D206" s="11"/>
       <c r="E206" s="10"/>
-      <c r="F206" s="11"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C207" s="10"/>
-      <c r="D207" s="11"/>
       <c r="E207" s="10"/>
-      <c r="F207" s="11"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C208" s="10"/>
-      <c r="D208" s="11"/>
       <c r="E208" s="10"/>
-      <c r="F208" s="11"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C209" s="10"/>
-      <c r="D209" s="11"/>
       <c r="E209" s="10"/>
-      <c r="F209" s="11"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C210" s="10"/>
-      <c r="D210" s="11"/>
       <c r="E210" s="10"/>
-      <c r="F210" s="11"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C211" s="10"/>
-      <c r="D211" s="11"/>
       <c r="E211" s="10"/>
-      <c r="F211" s="11"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C212" s="10"/>
-      <c r="D212" s="11"/>
       <c r="E212" s="10"/>
-      <c r="F212" s="11"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C213" s="10"/>
-      <c r="D213" s="11"/>
       <c r="E213" s="10"/>
-      <c r="F213" s="11"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C214" s="10"/>
-      <c r="D214" s="11"/>
       <c r="E214" s="10"/>
-      <c r="F214" s="11"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C215" s="10"/>
-      <c r="D215" s="11"/>
       <c r="E215" s="10"/>
-      <c r="F215" s="11"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C216" s="10"/>
-      <c r="D216" s="11"/>
       <c r="E216" s="10"/>
-      <c r="F216" s="11"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C217" s="10"/>
-      <c r="D217" s="11"/>
       <c r="E217" s="10"/>
-      <c r="F217" s="11"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C218" s="10"/>
-      <c r="D218" s="11"/>
       <c r="E218" s="10"/>
-      <c r="F218" s="11"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C219" s="10"/>
-      <c r="D219" s="11"/>
       <c r="E219" s="10"/>
-      <c r="F219" s="11"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C220" s="10"/>
-      <c r="D220" s="11"/>
       <c r="E220" s="10"/>
-      <c r="F220" s="11"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C221" s="10"/>
-      <c r="D221" s="11"/>
       <c r="E221" s="10"/>
-      <c r="F221" s="11"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C222" s="10"/>
-      <c r="D222" s="11"/>
       <c r="E222" s="10"/>
-      <c r="F222" s="11"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C223" s="10"/>
-      <c r="D223" s="11"/>
       <c r="E223" s="10"/>
-      <c r="F223" s="11"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C224" s="10"/>
-      <c r="D224" s="11"/>
       <c r="E224" s="10"/>
-      <c r="F224" s="11"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C225" s="10"/>
-      <c r="D225" s="11"/>
       <c r="E225" s="10"/>
-      <c r="F225" s="11"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C226" s="10"/>
-      <c r="D226" s="11"/>
       <c r="E226" s="10"/>
-      <c r="F226" s="11"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C227" s="10"/>
-      <c r="D227" s="11"/>
       <c r="E227" s="10"/>
-      <c r="F227" s="11"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C228" s="10"/>
-      <c r="D228" s="11"/>
       <c r="E228" s="10"/>
-      <c r="F228" s="11"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C229" s="10"/>
-      <c r="D229" s="11"/>
       <c r="E229" s="10"/>
-      <c r="F229" s="11"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C230" s="10"/>
-      <c r="D230" s="11"/>
       <c r="E230" s="10"/>
-      <c r="F230" s="11"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C231" s="10"/>
-      <c r="D231" s="11"/>
       <c r="E231" s="10"/>
-      <c r="F231" s="11"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C232" s="10"/>
-      <c r="D232" s="11"/>
       <c r="E232" s="10"/>
-      <c r="F232" s="11"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C233" s="10"/>
-      <c r="D233" s="11"/>
       <c r="E233" s="10"/>
-      <c r="F233" s="11"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C234" s="10"/>
-      <c r="D234" s="11"/>
       <c r="E234" s="10"/>
-      <c r="F234" s="11"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C235" s="10"/>
-      <c r="D235" s="11"/>
       <c r="E235" s="10"/>
-      <c r="F235" s="11"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C236" s="10"/>
-      <c r="D236" s="11"/>
       <c r="E236" s="10"/>
-      <c r="F236" s="11"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C237" s="10"/>
-      <c r="D237" s="11"/>
       <c r="E237" s="10"/>
-      <c r="F237" s="11"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C238" s="10"/>
-      <c r="D238" s="11"/>
       <c r="E238" s="10"/>
-      <c r="F238" s="11"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C239" s="10"/>
-      <c r="D239" s="11"/>
       <c r="E239" s="10"/>
-      <c r="F239" s="11"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C240" s="10"/>
-      <c r="D240" s="11"/>
       <c r="E240" s="10"/>
-      <c r="F240" s="11"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C241" s="10"/>
-      <c r="D241" s="11"/>
       <c r="E241" s="10"/>
-      <c r="F241" s="11"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C242" s="10"/>
-      <c r="D242" s="11"/>
       <c r="E242" s="10"/>
-      <c r="F242" s="11"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C243" s="10"/>
-      <c r="D243" s="11"/>
       <c r="E243" s="10"/>
-      <c r="F243" s="11"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C244" s="10"/>
-      <c r="D244" s="11"/>
       <c r="E244" s="10"/>
-      <c r="F244" s="11"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C245" s="10"/>
-      <c r="D245" s="11"/>
       <c r="E245" s="10"/>
-      <c r="F245" s="11"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C246" s="10"/>
-      <c r="D246" s="11"/>
       <c r="E246" s="10"/>
-      <c r="F246" s="11"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C247" s="10"/>
-      <c r="D247" s="11"/>
       <c r="E247" s="10"/>
-      <c r="F247" s="11"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C248" s="10"/>
-      <c r="D248" s="11"/>
       <c r="E248" s="10"/>
-      <c r="F248" s="11"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C249" s="10"/>
-      <c r="D249" s="11"/>
       <c r="E249" s="10"/>
-      <c r="F249" s="11"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C250" s="10"/>
-      <c r="D250" s="11"/>
       <c r="E250" s="10"/>
-      <c r="F250" s="11"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C251" s="10"/>
-      <c r="D251" s="11"/>
       <c r="E251" s="10"/>
-      <c r="F251" s="11"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C252" s="10"/>
-      <c r="D252" s="11"/>
       <c r="E252" s="10"/>
-      <c r="F252" s="11"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C253" s="10"/>
-      <c r="D253" s="11"/>
       <c r="E253" s="10"/>
-      <c r="F253" s="11"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C254" s="10"/>
-      <c r="D254" s="11"/>
       <c r="E254" s="10"/>
-      <c r="F254" s="11"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C255" s="10"/>
-      <c r="D255" s="11"/>
       <c r="E255" s="10"/>
-      <c r="F255" s="11"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C256" s="10"/>
-      <c r="D256" s="11"/>
       <c r="E256" s="10"/>
-      <c r="F256" s="11"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C257" s="10"/>
-      <c r="D257" s="11"/>
       <c r="E257" s="10"/>
-      <c r="F257" s="11"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C258" s="10"/>
-      <c r="D258" s="11"/>
       <c r="E258" s="10"/>
-      <c r="F258" s="11"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C259" s="10"/>
-      <c r="D259" s="11"/>
       <c r="E259" s="10"/>
-      <c r="F259" s="11"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C260" s="10"/>
-      <c r="D260" s="11"/>
       <c r="E260" s="10"/>
-      <c r="F260" s="11"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C261" s="10"/>
-      <c r="D261" s="11"/>
       <c r="E261" s="10"/>
-      <c r="F261" s="11"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C262" s="10"/>
-      <c r="D262" s="11"/>
       <c r="E262" s="10"/>
-      <c r="F262" s="11"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C263" s="10"/>
-      <c r="D263" s="11"/>
       <c r="E263" s="10"/>
-      <c r="F263" s="11"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C264" s="10"/>
-      <c r="D264" s="11"/>
       <c r="E264" s="10"/>
-      <c r="F264" s="11"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C265" s="10"/>
-      <c r="D265" s="11"/>
       <c r="E265" s="10"/>
-      <c r="F265" s="11"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C266" s="10"/>
-      <c r="D266" s="11"/>
       <c r="E266" s="10"/>
-      <c r="F266" s="11"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C267" s="10"/>
-      <c r="D267" s="11"/>
       <c r="E267" s="10"/>
-      <c r="F267" s="11"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C268" s="10"/>
-      <c r="D268" s="11"/>
       <c r="E268" s="10"/>
-      <c r="F268" s="11"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C269" s="10"/>
-      <c r="D269" s="11"/>
       <c r="E269" s="10"/>
-      <c r="F269" s="11"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C270" s="10"/>
-      <c r="D270" s="11"/>
       <c r="E270" s="10"/>
-      <c r="F270" s="11"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C271" s="10"/>
-      <c r="D271" s="11"/>
       <c r="E271" s="10"/>
-      <c r="F271" s="11"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C272" s="10"/>
-      <c r="D272" s="11"/>
       <c r="E272" s="10"/>
-      <c r="F272" s="11"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C273" s="10"/>
-      <c r="D273" s="11"/>
       <c r="E273" s="10"/>
-      <c r="F273" s="11"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C274" s="10"/>
-      <c r="D274" s="11"/>
       <c r="E274" s="10"/>
-      <c r="F274" s="11"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C275" s="10"/>
-      <c r="D275" s="11"/>
       <c r="E275" s="10"/>
-      <c r="F275" s="11"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C276" s="10"/>
-      <c r="D276" s="11"/>
       <c r="E276" s="10"/>
-      <c r="F276" s="11"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C277" s="10"/>
-      <c r="D277" s="11"/>
       <c r="E277" s="10"/>
-      <c r="F277" s="11"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C278" s="10"/>
-      <c r="D278" s="11"/>
       <c r="E278" s="10"/>
-      <c r="F278" s="11"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C279" s="10"/>
-      <c r="D279" s="11"/>
       <c r="E279" s="10"/>
-      <c r="F279" s="11"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C280" s="10"/>
-      <c r="D280" s="11"/>
       <c r="E280" s="10"/>
-      <c r="F280" s="11"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C281" s="10"/>
-      <c r="D281" s="11"/>
       <c r="E281" s="10"/>
-      <c r="F281" s="11"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C282" s="10"/>
-      <c r="D282" s="11"/>
       <c r="E282" s="10"/>
-      <c r="F282" s="11"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C283" s="10"/>
-      <c r="D283" s="11"/>
       <c r="E283" s="10"/>
-      <c r="F283" s="11"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C284" s="10"/>
-      <c r="D284" s="11"/>
       <c r="E284" s="10"/>
-      <c r="F284" s="11"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C285" s="10"/>
-      <c r="D285" s="11"/>
       <c r="E285" s="10"/>
-      <c r="F285" s="11"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C286" s="10"/>
-      <c r="D286" s="11"/>
       <c r="E286" s="10"/>
-      <c r="F286" s="11"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C287" s="10"/>
-      <c r="D287" s="11"/>
       <c r="E287" s="10"/>
-      <c r="F287" s="11"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C288" s="10"/>
-      <c r="D288" s="11"/>
       <c r="E288" s="10"/>
-      <c r="F288" s="11"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C289" s="10"/>
-      <c r="D289" s="11"/>
       <c r="E289" s="10"/>
-      <c r="F289" s="11"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C290" s="10"/>
-      <c r="D290" s="11"/>
       <c r="E290" s="10"/>
-      <c r="F290" s="11"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C291" s="10"/>
-      <c r="D291" s="11"/>
       <c r="E291" s="10"/>
-      <c r="F291" s="11"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C292" s="10"/>
-      <c r="D292" s="11"/>
       <c r="E292" s="10"/>
-      <c r="F292" s="11"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C293" s="10"/>
-      <c r="D293" s="11"/>
       <c r="E293" s="10"/>
-      <c r="F293" s="11"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C294" s="10"/>
-      <c r="D294" s="11"/>
       <c r="E294" s="10"/>
-      <c r="F294" s="11"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C295" s="10"/>
-      <c r="D295" s="11"/>
       <c r="E295" s="10"/>
-      <c r="F295" s="11"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C296" s="10"/>
-      <c r="D296" s="11"/>
       <c r="E296" s="10"/>
-      <c r="F296" s="11"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C297" s="10"/>
-      <c r="D297" s="11"/>
       <c r="E297" s="10"/>
-      <c r="F297" s="11"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C298" s="10"/>
-      <c r="D298" s="11"/>
       <c r="E298" s="10"/>
-      <c r="F298" s="11"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C299" s="10"/>
-      <c r="D299" s="11"/>
       <c r="E299" s="10"/>
-      <c r="F299" s="11"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C300" s="10"/>
-      <c r="D300" s="11"/>
       <c r="E300" s="10"/>
-      <c r="F300" s="11"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C301" s="10"/>
-      <c r="D301" s="11"/>
       <c r="E301" s="10"/>
-      <c r="F301" s="11"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C302" s="10"/>
-      <c r="D302" s="11"/>
       <c r="E302" s="10"/>
-      <c r="F302" s="11"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C303" s="10"/>
-      <c r="D303" s="11"/>
       <c r="E303" s="10"/>
-      <c r="F303" s="11"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C304" s="10"/>
-      <c r="D304" s="11"/>
       <c r="E304" s="10"/>
-      <c r="F304" s="11"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C305" s="10"/>
-      <c r="D305" s="11"/>
       <c r="E305" s="10"/>
-      <c r="F305" s="11"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C306" s="10"/>
-      <c r="D306" s="11"/>
       <c r="E306" s="10"/>
-      <c r="F306" s="11"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C307" s="10"/>
-      <c r="D307" s="11"/>
       <c r="E307" s="10"/>
-      <c r="F307" s="11"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C308" s="10"/>
-      <c r="D308" s="11"/>
       <c r="E308" s="10"/>
-      <c r="F308" s="11"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C309" s="10"/>
-      <c r="D309" s="11"/>
       <c r="E309" s="10"/>
-      <c r="F309" s="11"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C310" s="10"/>
-      <c r="D310" s="11"/>
       <c r="E310" s="10"/>
-      <c r="F310" s="11"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C311" s="10"/>
-      <c r="D311" s="11"/>
       <c r="E311" s="10"/>
-      <c r="F311" s="11"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C312" s="10"/>
-      <c r="D312" s="11"/>
       <c r="E312" s="10"/>
-      <c r="F312" s="11"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C313" s="10"/>
-      <c r="D313" s="11"/>
       <c r="E313" s="10"/>
-      <c r="F313" s="11"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C314" s="10"/>
-      <c r="D314" s="11"/>
       <c r="E314" s="10"/>
-      <c r="F314" s="11"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C315" s="10"/>
-      <c r="D315" s="11"/>
       <c r="E315" s="10"/>
-      <c r="F315" s="11"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C316" s="10"/>
-      <c r="D316" s="11"/>
       <c r="E316" s="10"/>
-      <c r="F316" s="11"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C317" s="10"/>
-      <c r="D317" s="11"/>
       <c r="E317" s="10"/>
-      <c r="F317" s="11"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C318" s="10"/>
-      <c r="D318" s="11"/>
       <c r="E318" s="10"/>
-      <c r="F318" s="11"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C319" s="10"/>
-      <c r="D319" s="11"/>
       <c r="E319" s="10"/>
-      <c r="F319" s="11"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C320" s="10"/>
-      <c r="D320" s="11"/>
       <c r="E320" s="10"/>
-      <c r="F320" s="11"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C321" s="10"/>
-      <c r="D321" s="11"/>
       <c r="E321" s="10"/>
-      <c r="F321" s="11"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C322" s="10"/>
-      <c r="D322" s="11"/>
       <c r="E322" s="10"/>
-      <c r="F322" s="11"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C323" s="10"/>
-      <c r="D323" s="11"/>
       <c r="E323" s="10"/>
-      <c r="F323" s="11"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C324" s="10"/>
-      <c r="D324" s="11"/>
       <c r="E324" s="10"/>
-      <c r="F324" s="11"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C325" s="10"/>
-      <c r="D325" s="11"/>
       <c r="E325" s="10"/>
-      <c r="F325" s="11"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C326" s="10"/>
-      <c r="D326" s="11"/>
       <c r="E326" s="10"/>
-      <c r="F326" s="11"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C327" s="10"/>
-      <c r="D327" s="11"/>
       <c r="E327" s="10"/>
-      <c r="F327" s="11"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C328" s="10"/>
-      <c r="D328" s="11"/>
       <c r="E328" s="10"/>
-      <c r="F328" s="11"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C329" s="10"/>
-      <c r="D329" s="11"/>
       <c r="E329" s="10"/>
-      <c r="F329" s="11"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C330" s="10"/>
-      <c r="D330" s="11"/>
       <c r="E330" s="10"/>
-      <c r="F330" s="11"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C331" s="10"/>
-      <c r="D331" s="11"/>
       <c r="E331" s="10"/>
-      <c r="F331" s="11"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C332" s="10"/>
-      <c r="D332" s="11"/>
       <c r="E332" s="10"/>
-      <c r="F332" s="11"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C333" s="10"/>
-      <c r="D333" s="11"/>
       <c r="E333" s="10"/>
-      <c r="F333" s="11"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C334" s="10"/>
-      <c r="D334" s="11"/>
       <c r="E334" s="10"/>
-      <c r="F334" s="11"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C335" s="10"/>
-      <c r="D335" s="11"/>
       <c r="E335" s="10"/>
-      <c r="F335" s="11"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C336" s="10"/>
-      <c r="D336" s="11"/>
       <c r="E336" s="10"/>
-      <c r="F336" s="11"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C337" s="10"/>
-      <c r="D337" s="11"/>
       <c r="E337" s="10"/>
-      <c r="F337" s="11"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C338" s="10"/>
-      <c r="D338" s="11"/>
       <c r="E338" s="10"/>
-      <c r="F338" s="11"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C339" s="10"/>
-      <c r="D339" s="11"/>
       <c r="E339" s="10"/>
-      <c r="F339" s="11"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C340" s="10"/>
-      <c r="D340" s="11"/>
       <c r="E340" s="10"/>
-      <c r="F340" s="11"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C341" s="10"/>
-      <c r="D341" s="11"/>
       <c r="E341" s="10"/>
-      <c r="F341" s="11"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C342" s="10"/>
-      <c r="D342" s="11"/>
       <c r="E342" s="10"/>
-      <c r="F342" s="11"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C343" s="10"/>
-      <c r="D343" s="11"/>
       <c r="E343" s="10"/>
-      <c r="F343" s="11"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C344" s="10"/>
-      <c r="D344" s="11"/>
       <c r="E344" s="10"/>
-      <c r="F344" s="11"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C345" s="10"/>
-      <c r="D345" s="11"/>
       <c r="E345" s="10"/>
-      <c r="F345" s="11"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C346" s="10"/>
-      <c r="D346" s="11"/>
       <c r="E346" s="10"/>
-      <c r="F346" s="11"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C347" s="10"/>
-      <c r="D347" s="11"/>
       <c r="E347" s="10"/>
-      <c r="F347" s="11"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C348" s="10"/>
-      <c r="D348" s="11"/>
       <c r="E348" s="10"/>
-      <c r="F348" s="11"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C349" s="10"/>
-      <c r="D349" s="11"/>
       <c r="E349" s="10"/>
-      <c r="F349" s="11"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C350" s="10"/>
-      <c r="D350" s="11"/>
       <c r="E350" s="10"/>
-      <c r="F350" s="11"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C351" s="10"/>
-      <c r="D351" s="11"/>
       <c r="E351" s="10"/>
-      <c r="F351" s="11"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C352" s="10"/>
-      <c r="D352" s="11"/>
       <c r="E352" s="10"/>
-      <c r="F352" s="11"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C353" s="10"/>
-      <c r="D353" s="11"/>
       <c r="E353" s="10"/>
-      <c r="F353" s="11"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C354" s="10"/>
-      <c r="D354" s="11"/>
       <c r="E354" s="10"/>
-      <c r="F354" s="11"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C355" s="10"/>
-      <c r="D355" s="11"/>
       <c r="E355" s="10"/>
-      <c r="F355" s="11"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C356" s="10"/>
-      <c r="D356" s="11"/>
       <c r="E356" s="10"/>
-      <c r="F356" s="11"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C357" s="10"/>
-      <c r="D357" s="11"/>
       <c r="E357" s="10"/>
-      <c r="F357" s="11"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C358" s="10"/>
-      <c r="D358" s="11"/>
       <c r="E358" s="10"/>
-      <c r="F358" s="11"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C359" s="10"/>
-      <c r="D359" s="11"/>
       <c r="E359" s="10"/>
-      <c r="F359" s="11"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C360" s="10"/>
-      <c r="D360" s="11"/>
       <c r="E360" s="10"/>
-      <c r="F360" s="11"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C361" s="10"/>
-      <c r="D361" s="11"/>
       <c r="E361" s="10"/>
-      <c r="F361" s="11"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C362" s="10"/>
-      <c r="D362" s="11"/>
       <c r="E362" s="10"/>
-      <c r="F362" s="11"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C363" s="10"/>
-      <c r="D363" s="11"/>
       <c r="E363" s="10"/>
-      <c r="F363" s="11"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C364" s="10"/>
-      <c r="D364" s="11"/>
       <c r="E364" s="10"/>
-      <c r="F364" s="11"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C365" s="10"/>
-      <c r="D365" s="11"/>
       <c r="E365" s="10"/>
-      <c r="F365" s="11"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C366" s="10"/>
-      <c r="D366" s="11"/>
       <c r="E366" s="10"/>
-      <c r="F366" s="11"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C367" s="10"/>
-      <c r="D367" s="11"/>
       <c r="E367" s="10"/>
-      <c r="F367" s="11"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C368" s="10"/>
-      <c r="D368" s="11"/>
       <c r="E368" s="10"/>
-      <c r="F368" s="11"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C369" s="10"/>
-      <c r="D369" s="11"/>
       <c r="E369" s="10"/>
-      <c r="F369" s="11"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C370" s="10"/>
-      <c r="D370" s="11"/>
       <c r="E370" s="10"/>
-      <c r="F370" s="11"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C371" s="10"/>
-      <c r="D371" s="11"/>
       <c r="E371" s="10"/>
-      <c r="F371" s="11"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C372" s="10"/>
-      <c r="D372" s="11"/>
       <c r="E372" s="10"/>
-      <c r="F372" s="11"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C373" s="10"/>
-      <c r="D373" s="11"/>
       <c r="E373" s="10"/>
-      <c r="F373" s="11"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C374" s="10"/>
-      <c r="D374" s="11"/>
       <c r="E374" s="10"/>
-      <c r="F374" s="11"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C375" s="10"/>
-      <c r="D375" s="11"/>
       <c r="E375" s="10"/>
-      <c r="F375" s="11"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C376" s="10"/>
-      <c r="D376" s="11"/>
       <c r="E376" s="10"/>
-      <c r="F376" s="11"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C377" s="10"/>
-      <c r="D377" s="11"/>
       <c r="E377" s="10"/>
-      <c r="F377" s="11"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C378" s="10"/>
-      <c r="D378" s="11"/>
       <c r="E378" s="10"/>
-      <c r="F378" s="11"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C379" s="10"/>
-      <c r="D379" s="11"/>
       <c r="E379" s="10"/>
-      <c r="F379" s="11"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C380" s="10"/>
-      <c r="D380" s="11"/>
       <c r="E380" s="10"/>
-      <c r="F380" s="11"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C381" s="10"/>
-      <c r="D381" s="11"/>
       <c r="E381" s="10"/>
-      <c r="F381" s="11"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C382" s="10"/>
-      <c r="D382" s="11"/>
       <c r="E382" s="10"/>
-      <c r="F382" s="11"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C383" s="10"/>
-      <c r="D383" s="11"/>
       <c r="E383" s="10"/>
-      <c r="F383" s="11"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C384" s="10"/>
-      <c r="D384" s="11"/>
       <c r="E384" s="10"/>
-      <c r="F384" s="11"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C385" s="10"/>
-      <c r="D385" s="11"/>
       <c r="E385" s="10"/>
-      <c r="F385" s="11"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C386" s="10"/>
-      <c r="D386" s="11"/>
       <c r="E386" s="10"/>
-      <c r="F386" s="11"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C387" s="10"/>
-      <c r="D387" s="11"/>
       <c r="E387" s="10"/>
-      <c r="F387" s="11"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C388" s="10"/>
-      <c r="D388" s="11"/>
       <c r="E388" s="10"/>
-      <c r="F388" s="11"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C389" s="10"/>
-      <c r="D389" s="11"/>
       <c r="E389" s="10"/>
-      <c r="F389" s="11"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C390" s="10"/>
-      <c r="D390" s="11"/>
       <c r="E390" s="10"/>
-      <c r="F390" s="11"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C391" s="10"/>
-      <c r="D391" s="11"/>
       <c r="E391" s="10"/>
-      <c r="F391" s="11"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C392" s="10"/>
-      <c r="D392" s="11"/>
       <c r="E392" s="10"/>
-      <c r="F392" s="11"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C393" s="10"/>
-      <c r="D393" s="11"/>
       <c r="E393" s="10"/>
-      <c r="F393" s="11"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C394" s="10"/>
-      <c r="D394" s="11"/>
       <c r="E394" s="10"/>
-      <c r="F394" s="11"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C395" s="10"/>
-      <c r="D395" s="11"/>
       <c r="E395" s="10"/>
-      <c r="F395" s="11"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C396" s="10"/>
-      <c r="D396" s="11"/>
       <c r="E396" s="10"/>
-      <c r="F396" s="11"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C397" s="10"/>
-      <c r="D397" s="11"/>
       <c r="E397" s="10"/>
-      <c r="F397" s="11"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C398" s="10"/>
-      <c r="D398" s="11"/>
       <c r="E398" s="10"/>
-      <c r="F398" s="11"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C399" s="10"/>
-      <c r="D399" s="11"/>
       <c r="E399" s="10"/>
-      <c r="F399" s="11"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C400" s="10"/>
-      <c r="D400" s="11"/>
       <c r="E400" s="10"/>
-      <c r="F400" s="11"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C401" s="10"/>
-      <c r="D401" s="11"/>
       <c r="E401" s="10"/>
-      <c r="F401" s="11"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C402" s="10"/>
-      <c r="D402" s="11"/>
       <c r="E402" s="10"/>
-      <c r="F402" s="11"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C403" s="10"/>
-      <c r="D403" s="11"/>
       <c r="E403" s="10"/>
-      <c r="F403" s="11"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C404" s="10"/>
-      <c r="D404" s="11"/>
       <c r="E404" s="10"/>
-      <c r="F404" s="11"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C405" s="10"/>
-      <c r="D405" s="11"/>
       <c r="E405" s="10"/>
-      <c r="F405" s="11"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C406" s="10"/>
-      <c r="D406" s="11"/>
       <c r="E406" s="10"/>
-      <c r="F406" s="11"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C407" s="10"/>
-      <c r="D407" s="11"/>
       <c r="E407" s="10"/>
-      <c r="F407" s="11"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C408" s="10"/>
-      <c r="D408" s="11"/>
       <c r="E408" s="10"/>
-      <c r="F408" s="11"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C409" s="10"/>
-      <c r="D409" s="11"/>
       <c r="E409" s="10"/>
-      <c r="F409" s="11"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C410" s="10"/>
-      <c r="D410" s="11"/>
       <c r="E410" s="10"/>
-      <c r="F410" s="11"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C411" s="10"/>
-      <c r="D411" s="11"/>
       <c r="E411" s="10"/>
-      <c r="F411" s="11"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C412" s="10"/>
-      <c r="D412" s="11"/>
       <c r="E412" s="10"/>
-      <c r="F412" s="11"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C413" s="10"/>
-      <c r="D413" s="11"/>
       <c r="E413" s="10"/>
-      <c r="F413" s="11"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C414" s="10"/>
-      <c r="D414" s="11"/>
       <c r="E414" s="10"/>
-      <c r="F414" s="11"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C415" s="10"/>
-      <c r="D415" s="11"/>
       <c r="E415" s="10"/>
-      <c r="F415" s="11"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C416" s="10"/>
-      <c r="D416" s="11"/>
       <c r="E416" s="10"/>
-      <c r="F416" s="11"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C417" s="10"/>
-      <c r="D417" s="11"/>
       <c r="E417" s="10"/>
-      <c r="F417" s="11"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C418" s="10"/>
-      <c r="D418" s="11"/>
       <c r="E418" s="10"/>
-      <c r="F418" s="11"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C419" s="10"/>
-      <c r="D419" s="11"/>
       <c r="E419" s="10"/>
-      <c r="F419" s="11"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C420" s="10"/>
-      <c r="D420" s="11"/>
       <c r="E420" s="10"/>
-      <c r="F420" s="11"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C421" s="10"/>
-      <c r="D421" s="11"/>
       <c r="E421" s="10"/>
-      <c r="F421" s="11"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C422" s="10"/>
-      <c r="D422" s="11"/>
       <c r="E422" s="10"/>
-      <c r="F422" s="11"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C423" s="10"/>
-      <c r="D423" s="11"/>
       <c r="E423" s="10"/>
-      <c r="F423" s="11"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C424" s="10"/>
-      <c r="D424" s="11"/>
       <c r="E424" s="10"/>
-      <c r="F424" s="11"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C425" s="10"/>
-      <c r="D425" s="11"/>
       <c r="E425" s="10"/>
-      <c r="F425" s="11"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C426" s="10"/>
-      <c r="D426" s="11"/>
       <c r="E426" s="10"/>
-      <c r="F426" s="11"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C427" s="10"/>
-      <c r="D427" s="11"/>
       <c r="E427" s="10"/>
-      <c r="F427" s="11"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C428" s="10"/>
-      <c r="D428" s="11"/>
       <c r="E428" s="10"/>
-      <c r="F428" s="11"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C429" s="10"/>
-      <c r="D429" s="11"/>
       <c r="E429" s="10"/>
-      <c r="F429" s="11"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C430" s="10"/>
-      <c r="D430" s="11"/>
       <c r="E430" s="10"/>
-      <c r="F430" s="11"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C431" s="10"/>
-      <c r="D431" s="11"/>
       <c r="E431" s="10"/>
-      <c r="F431" s="11"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C432" s="10"/>
-      <c r="D432" s="11"/>
       <c r="E432" s="10"/>
-      <c r="F432" s="11"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C433" s="10"/>
-      <c r="D433" s="11"/>
       <c r="E433" s="10"/>
-      <c r="F433" s="11"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C434" s="10"/>
-      <c r="D434" s="11"/>
       <c r="E434" s="10"/>
-      <c r="F434" s="11"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C435" s="10"/>
-      <c r="D435" s="11"/>
       <c r="E435" s="10"/>
-      <c r="F435" s="11"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C436" s="10"/>
-      <c r="D436" s="11"/>
       <c r="E436" s="10"/>
-      <c r="F436" s="11"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C437" s="10"/>
-      <c r="D437" s="11"/>
       <c r="E437" s="10"/>
-      <c r="F437" s="11"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C438" s="10"/>
-      <c r="D438" s="11"/>
       <c r="E438" s="10"/>
-      <c r="F438" s="11"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C439" s="10"/>
-      <c r="D439" s="11"/>
       <c r="E439" s="10"/>
-      <c r="F439" s="11"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C440" s="10"/>
-      <c r="D440" s="11"/>
       <c r="E440" s="10"/>
-      <c r="F440" s="11"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C441" s="10"/>
-      <c r="D441" s="11"/>
       <c r="E441" s="10"/>
-      <c r="F441" s="11"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C442" s="10"/>
-      <c r="D442" s="11"/>
       <c r="E442" s="10"/>
-      <c r="F442" s="11"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C443" s="10"/>
-      <c r="D443" s="11"/>
       <c r="E443" s="10"/>
-      <c r="F443" s="11"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C444" s="10"/>
-      <c r="D444" s="11"/>
       <c r="E444" s="10"/>
-      <c r="F444" s="11"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C445" s="10"/>
-      <c r="D445" s="11"/>
       <c r="E445" s="10"/>
-      <c r="F445" s="11"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C446" s="10"/>
-      <c r="D446" s="11"/>
       <c r="E446" s="10"/>
-      <c r="F446" s="11"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C447" s="10"/>
-      <c r="D447" s="11"/>
       <c r="E447" s="10"/>
-      <c r="F447" s="11"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C448" s="10"/>
-      <c r="D448" s="11"/>
       <c r="E448" s="10"/>
-      <c r="F448" s="11"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C449" s="10"/>
-      <c r="D449" s="11"/>
       <c r="E449" s="10"/>
-      <c r="F449" s="11"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C450" s="10"/>
-      <c r="D450" s="11"/>
       <c r="E450" s="10"/>
-      <c r="F450" s="11"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C451" s="10"/>
-      <c r="D451" s="11"/>
       <c r="E451" s="10"/>
-      <c r="F451" s="11"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C452" s="10"/>
-      <c r="D452" s="11"/>
       <c r="E452" s="10"/>
-      <c r="F452" s="11"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C453" s="10"/>
-      <c r="D453" s="11"/>
       <c r="E453" s="10"/>
-      <c r="F453" s="11"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C454" s="10"/>
-      <c r="D454" s="11"/>
       <c r="E454" s="10"/>
-      <c r="F454" s="11"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C455" s="10"/>
-      <c r="D455" s="11"/>
       <c r="E455" s="10"/>
-      <c r="F455" s="11"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C456" s="10"/>
-      <c r="D456" s="11"/>
       <c r="E456" s="10"/>
-      <c r="F456" s="11"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C457" s="10"/>
-      <c r="D457" s="11"/>
       <c r="E457" s="10"/>
-      <c r="F457" s="11"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C458" s="10"/>
-      <c r="D458" s="11"/>
       <c r="E458" s="10"/>
-      <c r="F458" s="11"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C459" s="10"/>
-      <c r="D459" s="11"/>
       <c r="E459" s="10"/>
-      <c r="F459" s="11"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C460" s="10"/>
-      <c r="D460" s="11"/>
       <c r="E460" s="10"/>
-      <c r="F460" s="11"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C461" s="10"/>
-      <c r="D461" s="11"/>
       <c r="E461" s="10"/>
-      <c r="F461" s="11"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C462" s="10"/>
-      <c r="D462" s="11"/>
       <c r="E462" s="10"/>
-      <c r="F462" s="11"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C463" s="10"/>
-      <c r="D463" s="11"/>
       <c r="E463" s="10"/>
-      <c r="F463" s="11"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C464" s="10"/>
-      <c r="D464" s="11"/>
       <c r="E464" s="10"/>
-      <c r="F464" s="11"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C465" s="10"/>
-      <c r="D465" s="11"/>
       <c r="E465" s="10"/>
-      <c r="F465" s="11"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C466" s="10"/>
-      <c r="D466" s="11"/>
       <c r="E466" s="10"/>
-      <c r="F466" s="11"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C467" s="10"/>
-      <c r="D467" s="11"/>
       <c r="E467" s="10"/>
-      <c r="F467" s="11"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C468" s="10"/>
-      <c r="D468" s="11"/>
       <c r="E468" s="10"/>
-      <c r="F468" s="11"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C469" s="10"/>
-      <c r="D469" s="11"/>
       <c r="E469" s="10"/>
-      <c r="F469" s="11"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C470" s="10"/>
-      <c r="D470" s="11"/>
       <c r="E470" s="10"/>
-      <c r="F470" s="11"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C471" s="10"/>
-      <c r="D471" s="11"/>
       <c r="E471" s="10"/>
-      <c r="F471" s="11"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C472" s="10"/>
-      <c r="D472" s="11"/>
       <c r="E472" s="10"/>
-      <c r="F472" s="11"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C473" s="10"/>
-      <c r="D473" s="11"/>
       <c r="E473" s="10"/>
-      <c r="F473" s="11"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C474" s="10"/>
-      <c r="D474" s="11"/>
       <c r="E474" s="10"/>
-      <c r="F474" s="11"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C475" s="10"/>
-      <c r="D475" s="11"/>
       <c r="E475" s="10"/>
-      <c r="F475" s="11"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C476" s="10"/>
-      <c r="D476" s="11"/>
       <c r="E476" s="10"/>
-      <c r="F476" s="11"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C477" s="10"/>
-      <c r="D477" s="11"/>
       <c r="E477" s="10"/>
-      <c r="F477" s="11"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C478" s="10"/>
-      <c r="D478" s="11"/>
       <c r="E478" s="10"/>
-      <c r="F478" s="11"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C479" s="10"/>
-      <c r="D479" s="11"/>
       <c r="E479" s="10"/>
-      <c r="F479" s="11"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C480" s="10"/>
-      <c r="D480" s="11"/>
       <c r="E480" s="10"/>
-      <c r="F480" s="11"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C481" s="10"/>
-      <c r="D481" s="11"/>
       <c r="E481" s="10"/>
-      <c r="F481" s="11"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C482" s="10"/>
-      <c r="D482" s="11"/>
       <c r="E482" s="10"/>
-      <c r="F482" s="11"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C483" s="10"/>
-      <c r="D483" s="11"/>
       <c r="E483" s="10"/>
-      <c r="F483" s="11"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C484" s="10"/>
-      <c r="D484" s="11"/>
       <c r="E484" s="10"/>
-      <c r="F484" s="11"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C485" s="10"/>
-      <c r="D485" s="11"/>
       <c r="E485" s="10"/>
-      <c r="F485" s="11"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C486" s="10"/>
-      <c r="D486" s="11"/>
       <c r="E486" s="10"/>
-      <c r="F486" s="11"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C487" s="10"/>
-      <c r="D487" s="11"/>
       <c r="E487" s="10"/>
-      <c r="F487" s="11"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C488" s="10"/>
-      <c r="D488" s="11"/>
       <c r="E488" s="10"/>
-      <c r="F488" s="11"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C489" s="10"/>
-      <c r="D489" s="11"/>
       <c r="E489" s="10"/>
-      <c r="F489" s="11"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C490" s="10"/>
-      <c r="D490" s="11"/>
       <c r="E490" s="10"/>
-      <c r="F490" s="11"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C491" s="10"/>
-      <c r="D491" s="11"/>
       <c r="E491" s="10"/>
-      <c r="F491" s="11"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C492" s="10"/>
-      <c r="D492" s="11"/>
       <c r="E492" s="10"/>
-      <c r="F492" s="11"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C493" s="10"/>
-      <c r="D493" s="11"/>
       <c r="E493" s="10"/>
-      <c r="F493" s="11"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C494" s="10"/>
-      <c r="D494" s="11"/>
       <c r="E494" s="10"/>
-      <c r="F494" s="11"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C495" s="10"/>
-      <c r="D495" s="11"/>
       <c r="E495" s="10"/>
-      <c r="F495" s="11"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C496" s="10"/>
-      <c r="D496" s="11"/>
       <c r="E496" s="10"/>
-      <c r="F496" s="11"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C497" s="10"/>
-      <c r="D497" s="11"/>
       <c r="E497" s="10"/>
-      <c r="F497" s="11"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C498" s="10"/>
-      <c r="D498" s="11"/>
       <c r="E498" s="10"/>
-      <c r="F498" s="11"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C499" s="10"/>
-      <c r="D499" s="11"/>
       <c r="E499" s="10"/>
-      <c r="F499" s="11"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C500" s="10"/>
-      <c r="D500" s="11"/>
       <c r="E500" s="10"/>
-      <c r="F500" s="11"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C501" s="10"/>
-      <c r="D501" s="11"/>
       <c r="E501" s="10"/>
-      <c r="F501" s="11"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C502" s="10"/>
-      <c r="D502" s="11"/>
       <c r="E502" s="10"/>
-      <c r="F502" s="11"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C503" s="10"/>
-      <c r="D503" s="11"/>
       <c r="E503" s="10"/>
-      <c r="F503" s="11"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C504" s="10"/>
-      <c r="D504" s="11"/>
       <c r="E504" s="10"/>
-      <c r="F504" s="11"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C505" s="10"/>
-      <c r="D505" s="11"/>
       <c r="E505" s="10"/>
-      <c r="F505" s="11"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C506" s="10"/>
-      <c r="D506" s="11"/>
       <c r="E506" s="10"/>
-      <c r="F506" s="11"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C507" s="10"/>
-      <c r="D507" s="11"/>
       <c r="E507" s="10"/>
-      <c r="F507" s="11"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C508" s="10"/>
-      <c r="D508" s="11"/>
       <c r="E508" s="10"/>
-      <c r="F508" s="11"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C509" s="10"/>
-      <c r="D509" s="11"/>
       <c r="E509" s="10"/>
-      <c r="F509" s="11"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C510" s="10"/>
-      <c r="D510" s="11"/>
       <c r="E510" s="10"/>
-      <c r="F510" s="11"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C511" s="10"/>
-      <c r="D511" s="11"/>
       <c r="E511" s="10"/>
-      <c r="F511" s="11"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C512" s="10"/>
-      <c r="D512" s="11"/>
       <c r="E512" s="10"/>
-      <c r="F512" s="11"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C513" s="10"/>
-      <c r="D513" s="11"/>
       <c r="E513" s="10"/>
-      <c r="F513" s="11"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C514" s="10"/>
-      <c r="D514" s="11"/>
       <c r="E514" s="10"/>
-      <c r="F514" s="11"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C515" s="10"/>
-      <c r="D515" s="11"/>
       <c r="E515" s="10"/>
-      <c r="F515" s="11"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C516" s="10"/>
-      <c r="D516" s="11"/>
       <c r="E516" s="10"/>
-      <c r="F516" s="11"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C517" s="10"/>
-      <c r="D517" s="11"/>
       <c r="E517" s="10"/>
-      <c r="F517" s="11"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C518" s="10"/>
-      <c r="D518" s="11"/>
       <c r="E518" s="10"/>
-      <c r="F518" s="11"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C519" s="10"/>
-      <c r="D519" s="11"/>
       <c r="E519" s="10"/>
-      <c r="F519" s="11"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C520" s="10"/>
-      <c r="D520" s="11"/>
       <c r="E520" s="10"/>
-      <c r="F520" s="11"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C521" s="10"/>
-      <c r="D521" s="11"/>
       <c r="E521" s="10"/>
-      <c r="F521" s="11"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C522" s="10"/>
-      <c r="D522" s="11"/>
       <c r="E522" s="10"/>
-      <c r="F522" s="11"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C523" s="10"/>
-      <c r="D523" s="11"/>
       <c r="E523" s="10"/>
-      <c r="F523" s="11"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C524" s="10"/>
-      <c r="D524" s="11"/>
       <c r="E524" s="10"/>
-      <c r="F524" s="11"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C525" s="10"/>
-      <c r="D525" s="11"/>
       <c r="E525" s="10"/>
-      <c r="F525" s="11"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C526" s="10"/>
-      <c r="D526" s="11"/>
       <c r="E526" s="10"/>
-      <c r="F526" s="11"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C527" s="10"/>
-      <c r="D527" s="11"/>
       <c r="E527" s="10"/>
-      <c r="F527" s="11"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C528" s="10"/>
-      <c r="D528" s="11"/>
       <c r="E528" s="10"/>
-      <c r="F528" s="11"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C529" s="10"/>
-      <c r="D529" s="11"/>
       <c r="E529" s="10"/>
-      <c r="F529" s="11"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C530" s="10"/>
-      <c r="D530" s="11"/>
       <c r="E530" s="10"/>
-      <c r="F530" s="11"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C531" s="10"/>
-      <c r="D531" s="11"/>
       <c r="E531" s="10"/>
-      <c r="F531" s="11"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C532" s="10"/>
-      <c r="D532" s="11"/>
       <c r="E532" s="10"/>
-      <c r="F532" s="11"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C533" s="10"/>
-      <c r="D533" s="11"/>
       <c r="E533" s="10"/>
-      <c r="F533" s="11"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C534" s="10"/>
-      <c r="D534" s="11"/>
       <c r="E534" s="10"/>
-      <c r="F534" s="11"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C535" s="10"/>
-      <c r="D535" s="11"/>
       <c r="E535" s="10"/>
-      <c r="F535" s="11"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C536" s="10"/>
-      <c r="D536" s="11"/>
       <c r="E536" s="10"/>
-      <c r="F536" s="11"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C537" s="10"/>
-      <c r="D537" s="11"/>
       <c r="E537" s="10"/>
-      <c r="F537" s="11"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C538" s="10"/>
-      <c r="D538" s="11"/>
       <c r="E538" s="10"/>
-      <c r="F538" s="11"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C539" s="10"/>
-      <c r="D539" s="11"/>
       <c r="E539" s="10"/>
-      <c r="F539" s="11"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C540" s="10"/>
-      <c r="D540" s="11"/>
       <c r="E540" s="10"/>
-      <c r="F540" s="11"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C541" s="10"/>
-      <c r="D541" s="11"/>
       <c r="E541" s="10"/>
-      <c r="F541" s="11"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C542" s="10"/>
-      <c r="D542" s="11"/>
       <c r="E542" s="10"/>
-      <c r="F542" s="11"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C543" s="10"/>
-      <c r="D543" s="11"/>
       <c r="E543" s="10"/>
-      <c r="F543" s="11"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C544" s="10"/>
-      <c r="D544" s="11"/>
       <c r="E544" s="10"/>
-      <c r="F544" s="11"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C545" s="10"/>
-      <c r="D545" s="11"/>
       <c r="E545" s="10"/>
-      <c r="F545" s="11"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C546" s="10"/>
-      <c r="D546" s="11"/>
       <c r="E546" s="10"/>
-      <c r="F546" s="11"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C547" s="10"/>
-      <c r="D547" s="11"/>
       <c r="E547" s="10"/>
-      <c r="F547" s="11"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C548" s="10"/>
-      <c r="D548" s="11"/>
       <c r="E548" s="10"/>
-      <c r="F548" s="11"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C549" s="10"/>
-      <c r="D549" s="11"/>
       <c r="E549" s="10"/>
-      <c r="F549" s="11"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C550" s="10"/>
-      <c r="D550" s="11"/>
       <c r="E550" s="10"/>
-      <c r="F550" s="11"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C551" s="10"/>
-      <c r="D551" s="11"/>
       <c r="E551" s="10"/>
-      <c r="F551" s="11"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C552" s="10"/>
-      <c r="D552" s="11"/>
       <c r="E552" s="10"/>
-      <c r="F552" s="11"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C553" s="10"/>
-      <c r="D553" s="11"/>
       <c r="E553" s="10"/>
-      <c r="F553" s="11"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C554" s="10"/>
-      <c r="D554" s="11"/>
       <c r="E554" s="10"/>
-      <c r="F554" s="11"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C555" s="10"/>
-      <c r="D555" s="11"/>
       <c r="E555" s="10"/>
-      <c r="F555" s="11"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C556" s="10"/>
-      <c r="D556" s="11"/>
       <c r="E556" s="10"/>
-      <c r="F556" s="11"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C557" s="10"/>
-      <c r="D557" s="11"/>
       <c r="E557" s="10"/>
-      <c r="F557" s="11"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C558" s="10"/>
-      <c r="D558" s="11"/>
       <c r="E558" s="10"/>
-      <c r="F558" s="11"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C559" s="10"/>
-      <c r="D559" s="11"/>
       <c r="E559" s="10"/>
-      <c r="F559" s="11"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C560" s="10"/>
-      <c r="D560" s="11"/>
       <c r="E560" s="10"/>
-      <c r="F560" s="11"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C561" s="10"/>
-      <c r="D561" s="11"/>
       <c r="E561" s="10"/>
-      <c r="F561" s="11"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C562" s="10"/>
-      <c r="D562" s="11"/>
       <c r="E562" s="10"/>
-      <c r="F562" s="11"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C563" s="10"/>
-      <c r="D563" s="11"/>
       <c r="E563" s="10"/>
-      <c r="F563" s="11"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C564" s="10"/>
-      <c r="D564" s="11"/>
       <c r="E564" s="10"/>
-      <c r="F564" s="11"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C565" s="10"/>
-      <c r="D565" s="11"/>
       <c r="E565" s="10"/>
-      <c r="F565" s="11"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C566" s="10"/>
-      <c r="D566" s="11"/>
       <c r="E566" s="10"/>
-      <c r="F566" s="11"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C567" s="10"/>
-      <c r="D567" s="11"/>
       <c r="E567" s="10"/>
-      <c r="F567" s="11"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C568" s="10"/>
-      <c r="D568" s="11"/>
       <c r="E568" s="10"/>
-      <c r="F568" s="11"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C569" s="10"/>
-      <c r="D569" s="11"/>
       <c r="E569" s="10"/>
-      <c r="F569" s="11"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C570" s="10"/>
-      <c r="D570" s="11"/>
       <c r="E570" s="10"/>
-      <c r="F570" s="11"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C571" s="10"/>
-      <c r="D571" s="11"/>
       <c r="E571" s="10"/>
-      <c r="F571" s="11"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C572" s="10"/>
-      <c r="D572" s="11"/>
       <c r="E572" s="10"/>
-      <c r="F572" s="11"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C573" s="10"/>
-      <c r="D573" s="11"/>
       <c r="E573" s="10"/>
-      <c r="F573" s="11"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C574" s="10"/>
-      <c r="D574" s="11"/>
       <c r="E574" s="10"/>
-      <c r="F574" s="11"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C575" s="10"/>
-      <c r="D575" s="11"/>
       <c r="E575" s="10"/>
-      <c r="F575" s="11"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C576" s="10"/>
-      <c r="D576" s="11"/>
       <c r="E576" s="10"/>
-      <c r="F576" s="11"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C577" s="10"/>
-      <c r="D577" s="11"/>
       <c r="E577" s="10"/>
-      <c r="F577" s="11"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C578" s="10"/>
-      <c r="D578" s="11"/>
       <c r="E578" s="10"/>
-      <c r="F578" s="11"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C579" s="10"/>
-      <c r="D579" s="11"/>
       <c r="E579" s="10"/>
-      <c r="F579" s="11"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C580" s="10"/>
-      <c r="D580" s="11"/>
       <c r="E580" s="10"/>
-      <c r="F580" s="11"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C581" s="10"/>
-      <c r="D581" s="11"/>
       <c r="E581" s="10"/>
-      <c r="F581" s="11"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C582" s="10"/>
-      <c r="D582" s="11"/>
       <c r="E582" s="10"/>
-      <c r="F582" s="11"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C583" s="10"/>
-      <c r="D583" s="11"/>
       <c r="E583" s="10"/>
-      <c r="F583" s="11"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C584" s="10"/>
-      <c r="D584" s="11"/>
       <c r="E584" s="10"/>
-      <c r="F584" s="11"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C585" s="10"/>
-      <c r="D585" s="11"/>
       <c r="E585" s="10"/>
-      <c r="F585" s="11"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C586" s="10"/>
-      <c r="D586" s="11"/>
       <c r="E586" s="10"/>
-      <c r="F586" s="11"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C587" s="10"/>
-      <c r="D587" s="11"/>
       <c r="E587" s="10"/>
-      <c r="F587" s="11"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C588" s="10"/>
-      <c r="D588" s="11"/>
       <c r="E588" s="10"/>
-      <c r="F588" s="11"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C589" s="10"/>
-      <c r="D589" s="11"/>
       <c r="E589" s="10"/>
-      <c r="F589" s="11"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C590" s="10"/>
-      <c r="D590" s="11"/>
       <c r="E590" s="10"/>
-      <c r="F590" s="11"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C591" s="10"/>
-      <c r="D591" s="11"/>
       <c r="E591" s="10"/>
-      <c r="F591" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D591 F2:F591">

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -662,6 +662,144 @@
   </si>
   <si>
     <t xml:space="preserve">L.W 03/15/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a Helper, I want to check out and fund all selected needs in my funding basket so that my contributions are submitted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given that I have selected needs in my funding basket when I proceed to checkout then I expect to see a summary of the selected needs and their total cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given that I am ready to fund the selected needs when I confirm the checkout then I expect my contributions to be submitted successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given that I have insufficient funds when I try to check out then I expect to see an error message indicating insufficient funds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a U-fund Manager, I want to be able to search for needs so I can find a specific need quickly. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIVEN I submit a request to search for a specific need in my cupboard WHEN there is a need that contains that text, THEN the system should return a list of needs containing only needs that contain the text and a status code of OK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIVEN I submit a request to search for a specific need in my cupboard WHEN there are no needs that contains that text, THEN the system should return an empty list and a status code of OK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**NOT IMPLEMENTED YET** As a Helper, I want to be able to save needs to a wish list so I can revisit needs that I have interest in in the future.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">**NOT IMPLEMENTED YET** </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">As a Helper, I want to remove needs from my wish list in case I will not be able to afford them in the future.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Given I am logged in as a helper when I click remove on a need in my wishlist then the need will be removed from my wishlist.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">**NOT IMPLEMENTED YET** </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">As a Helper, I want to view my wish list so I can see the needs I have saved for purchasing later</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">given that I have items in my wish list when I view my wish list then I expect to see a list of all the needs I have saved for later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given that my wish list is empty when I view it then I expect to see a message indicating that the wish list is empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given that I have items in my wish list when I remove an item then I expect that item to be removed from the wish list</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">**NOT IMPLEMENTED YET** </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">As a Helper, I would like to filter my searches based on whether or not I’ve viewed them before so I can browse needs I have not seen.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">given that there are both viewed and unviewed needs when I filter for unviewed needs then I expect to see only needs I have not seen before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given that there are only viewed needs when I filter for unviewed needs then I expect to see a "no results found" message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given that I reset the filters when I clear the viewed/unviewed filter then I expect to see all available needs again</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">**NOT IMPLEMENTED YET** </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">As a Helper, I would like to filter my searches by price so I can view needs within my current budget.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">given that needs exist with different prices when I filter by a specific price range then I expect to see only the needs within that range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given that no needs exist within the selected price range when I filter by that range then I expect to see a "no results found" message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given that I reset the filters when I clear the price filter then I expect to see all available needs again</t>
   </si>
 </sst>
 </file>
@@ -671,7 +809,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -732,6 +870,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -782,7 +926,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -833,6 +977,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1172,10 +1324,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F591"/>
+  <dimension ref="A1:F595"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1411,67 +1563,137 @@
       </c>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="C19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="C20" s="10"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C21" s="10"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="C22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="C23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="C24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="C25" s="10"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C26" s="10"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13"/>
+      <c r="B27" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="C27" s="10"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13"/>
+      <c r="B28" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="C28" s="10"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="C29" s="10"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13"/>
+      <c r="B30" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="C30" s="10"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13"/>
+      <c r="B31" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="C31" s="10"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="C32" s="10"/>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="C33" s="10"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C34" s="10"/>
       <c r="E34" s="10"/>
     </row>
@@ -3703,8 +3925,24 @@
       <c r="C591" s="10"/>
       <c r="E591" s="10"/>
     </row>
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C592" s="10"/>
+      <c r="E592" s="10"/>
+    </row>
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C593" s="10"/>
+      <c r="E593" s="10"/>
+    </row>
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C594" s="10"/>
+      <c r="E594" s="10"/>
+    </row>
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C595" s="10"/>
+      <c r="E595" s="10"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D591 F2:F591">
+  <conditionalFormatting sqref="D32:D595 F32:F595 D2:D29 F2:F29">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(ISBLANK(D2),C2="Pass")</formula>
     </cfRule>
@@ -3712,7 +3950,7 @@
       <formula>AND(ISBLANK(D2),C2="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C591 E2:E591">
+  <conditionalFormatting sqref="C32:C595 E32:E595 C2:C29 E2:E29">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"Pass"</formula>
     </cfRule>
@@ -3720,8 +3958,24 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D31 F30:F31">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(ISBLANK(D30),C30="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(ISBLANK(D30),C30="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:C31 E30:E31">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C591 E2:E591" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C595 E2:E595" type="list">
       <formula1>"Pass,Fail"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -688,49 +688,19 @@
     <t xml:space="preserve">**NOT IMPLEMENTED YET** As a Helper, I want to be able to save needs to a wish list so I can revisit needs that I have interest in in the future.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">**NOT IMPLEMENTED YET** </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">As a Helper, I want to remove needs from my wish list in case I will not be able to afford them in the future.</t>
-    </r>
+    <t xml:space="preserve">Given I am logged in as a helper, when I click add need to wishlist, my wishlist should be updated with the added need.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given I am viewing my wishlist, when I add the need to my basket, the need should be moved from my wishlist into my basket. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**NOT IMPLEMENTED YET** As a Helper, I want to remove needs from my wish list in case I will not be able to afford them in the future.</t>
   </si>
   <si>
     <t xml:space="preserve">Given I am logged in as a helper when I click remove on a need in my wishlist then the need will be removed from my wishlist.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">**NOT IMPLEMENTED YET** </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">As a Helper, I want to view my wish list so I can see the needs I have saved for purchasing later</t>
-    </r>
+    <t xml:space="preserve">**NOT IMPLEMENTED YET** As a Helper, I want to view my wish list so I can see the needs I have saved for purchasing later</t>
   </si>
   <si>
     <t xml:space="preserve">given that I have items in my wish list when I view my wish list then I expect to see a list of all the needs I have saved for later</t>
@@ -742,25 +712,7 @@
     <t xml:space="preserve">given that I have items in my wish list when I remove an item then I expect that item to be removed from the wish list</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">**NOT IMPLEMENTED YET** </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">As a Helper, I would like to filter my searches based on whether or not I’ve viewed them before so I can browse needs I have not seen.</t>
-    </r>
+    <t xml:space="preserve">**NOT IMPLEMENTED YET** As a Helper, I would like to filter my searches based on whether or not I’ve viewed them before so I can browse needs I have not seen.</t>
   </si>
   <si>
     <t xml:space="preserve">given that there are both viewed and unviewed needs when I filter for unviewed needs then I expect to see only needs I have not seen before</t>
@@ -772,25 +724,7 @@
     <t xml:space="preserve">given that I reset the filters when I clear the viewed/unviewed filter then I expect to see all available needs again</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">**NOT IMPLEMENTED YET** </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">As a Helper, I would like to filter my searches by price so I can view needs within my current budget.</t>
-    </r>
+    <t xml:space="preserve">**NOT IMPLEMENTED YET** As a Helper, I would like to filter my searches by price so I can view needs within my current budget.</t>
   </si>
   <si>
     <t xml:space="preserve">given that needs exist with different prices when I filter by a specific price range then I expect to see only the needs within that range</t>
@@ -809,7 +743,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -870,12 +804,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -926,7 +854,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -979,11 +907,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1324,10 +1248,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F595"/>
+  <dimension ref="A1:F596"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1608,21 +1532,22 @@
       <c r="A24" s="13" t="s">
         <v>47</v>
       </c>
+      <c r="B24" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="C24" s="10"/>
       <c r="E24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="A25" s="13"/>
       <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="10"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="s">
+    <row r="26" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1631,10 +1556,12 @@
       <c r="C26" s="10"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
+    <row r="27" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="B27" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" s="10"/>
       <c r="E27" s="10"/>
@@ -1642,25 +1569,25 @@
     <row r="28" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13"/>
       <c r="B28" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" s="10"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="s">
-        <v>54</v>
-      </c>
+    <row r="29" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13"/>
       <c r="B29" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="10"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
+    <row r="30" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="B30" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" s="10"/>
       <c r="E30" s="10"/>
@@ -1668,36 +1595,40 @@
     <row r="31" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13"/>
       <c r="B31" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" s="10"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="s">
-        <v>58</v>
-      </c>
+    <row r="32" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13"/>
       <c r="B32" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C32" s="10"/>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="B33" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C33" s="10"/>
       <c r="E33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34" s="10"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C35" s="10"/>
       <c r="E35" s="10"/>
     </row>
@@ -3941,8 +3872,12 @@
       <c r="C595" s="10"/>
       <c r="E595" s="10"/>
     </row>
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C596" s="10"/>
+      <c r="E596" s="10"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D32:D595 F32:F595 D2:D29 F2:F29">
+  <conditionalFormatting sqref="D33:D596 F33:F596 D2:D30 F2:F30">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(ISBLANK(D2),C2="Pass")</formula>
     </cfRule>
@@ -3950,7 +3885,7 @@
       <formula>AND(ISBLANK(D2),C2="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C595 E32:E595 C2:C29 E2:E29">
+  <conditionalFormatting sqref="C33:C596 E33:E596 C2:C30 E2:E30">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"Pass"</formula>
     </cfRule>
@@ -3958,15 +3893,15 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D31 F30:F31">
+  <conditionalFormatting sqref="D31:D32 F31:F32">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(ISBLANK(D30),C30="Pass")</formula>
+      <formula>AND(ISBLANK(D31),C31="Pass")</formula>
     </cfRule>
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(ISBLANK(D30),C30="Fail")</formula>
+      <formula>AND(ISBLANK(D31),C31="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C31 E30:E31">
+  <conditionalFormatting sqref="C31:C32 E31:E32">
     <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"Pass"</formula>
     </cfRule>
@@ -3975,7 +3910,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C595 E2:E595" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C596 E2:E596" type="list">
       <formula1>"Pass,Fail"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -213,6 +213,12 @@
     <t xml:space="preserve">O.H. 03/04/2025</t>
   </si>
   <si>
+    <t xml:space="preserve">PASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG 04/01/2025</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -604,6 +610,27 @@
   </si>
   <si>
     <t xml:space="preserve">J.D. 03/05/2025</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SG 04/01/2025 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">As an admin, you can still view your basket and add Needs to you basket.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">As a Helper, I want to remove a need from my funding basket so that I can update my funding preferences.
@@ -670,12 +697,12 @@
     <t xml:space="preserve">given that I have selected needs in my funding basket when I proceed to checkout then I expect to see a summary of the selected needs and their total cost</t>
   </si>
   <si>
+    <t xml:space="preserve">L.W 04/01/2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">given that I am ready to fund the selected needs when I confirm the checkout then I expect my contributions to be submitted successfully</t>
   </si>
   <si>
-    <t xml:space="preserve">given that I have insufficient funds when I try to check out then I expect to see an error message indicating insufficient funds</t>
-  </si>
-  <si>
     <t xml:space="preserve">As a U-fund Manager, I want to be able to search for needs so I can find a specific need quickly. </t>
   </si>
   <si>
@@ -685,6 +712,21 @@
     <t xml:space="preserve">GIVEN I submit a request to search for a specific need in my cupboard WHEN there are no needs that contains that text, THEN the system should return an empty list and a status code of OK.</t>
   </si>
   <si>
+    <t xml:space="preserve">MKB 04.01.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a u-fund Manager, I want to be able to edit a need so I can keep needs up to date.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am logged in as a manager, when I click on a need, an option should appear to edit that need. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given I edit a need, when I click save, the changes should be reflected in the cupboard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When editing need, if some fields are left blank, no changes will apply. No error message displays.</t>
+  </si>
+  <si>
     <t xml:space="preserve">**NOT IMPLEMENTED YET** As a Helper, I want to be able to save needs to a wish list so I can revisit needs that I have interest in in the future.</t>
   </si>
   <si>
@@ -734,6 +776,15 @@
   </si>
   <si>
     <t xml:space="preserve">given that I reset the filters when I clear the price filter then I expect to see all available needs again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a u-fund Manager, I want to be able to add a need to the cupboard so I can keep it up to date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am logged in as a manager, when I view the cupboard, there should be an option to add a need to the cupboard. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add need UI differs from rest of site. As a helper or a logged out user, I can still create needs</t>
   </si>
 </sst>
 </file>
@@ -743,7 +794,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -804,6 +855,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -854,7 +911,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -908,6 +965,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1198,7 +1259,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1248,10 +1309,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F596"/>
+  <dimension ref="A1:F597"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1285,7 +1346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
@@ -1296,306 +1357,462 @@
       <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11"/>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="38.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9"/>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="54.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9"/>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9"/>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9"/>
       <c r="B16" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="D19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="B21" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="D21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="38.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="B23" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="E23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
+      <c r="E24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="62.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="B25" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
+      <c r="E25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>50</v>
       </c>
+    </row>
+    <row r="26" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13"/>
       <c r="B26" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
+      <c r="E27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="B28" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13"/>
       <c r="B29" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="s">
-        <v>56</v>
-      </c>
+      <c r="E29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13"/>
       <c r="B30" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
+      <c r="E30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="B31" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C31" s="10"/>
       <c r="E31" s="10"/>
@@ -1603,64 +1820,91 @@
     <row r="32" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13"/>
       <c r="B32" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C32" s="10"/>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="s">
-        <v>60</v>
-      </c>
+    <row r="33" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13"/>
       <c r="B33" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C33" s="10"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="B34" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C34" s="10"/>
       <c r="E34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C35" s="10"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="C36" s="10"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="50.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="C37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="E37" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0"/>
+      <c r="B38" s="0"/>
       <c r="C38" s="10"/>
       <c r="E38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0"/>
       <c r="C39" s="10"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0"/>
+      <c r="B40" s="0"/>
       <c r="C40" s="10"/>
+      <c r="D40" s="0"/>
       <c r="E40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0"/>
       <c r="C41" s="10"/>
+      <c r="D41" s="0"/>
       <c r="E41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0"/>
       <c r="C42" s="10"/>
+      <c r="D42" s="0"/>
       <c r="E42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0"/>
       <c r="C43" s="10"/>
       <c r="E43" s="10"/>
     </row>
@@ -3876,8 +4120,12 @@
       <c r="C596" s="10"/>
       <c r="E596" s="10"/>
     </row>
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C597" s="10"/>
+      <c r="E597" s="10"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D33:D596 F33:F596 D2:D30 F2:F30">
+  <conditionalFormatting sqref="D44:D597 F38:F597 F25:F31 D2:D31 D34:D38 F2:F23 F34:F36">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(ISBLANK(D2),C2="Pass")</formula>
     </cfRule>
@@ -3885,7 +4133,7 @@
       <formula>AND(ISBLANK(D2),C2="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:C596 E33:E596 C2:C30 E2:E30">
+  <conditionalFormatting sqref="C34:C597 E34:E597 C2:C31 E2:E31">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"Pass"</formula>
     </cfRule>
@@ -3893,15 +4141,15 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D32 F31:F32">
+  <conditionalFormatting sqref="D32:D33 F32:F33">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(ISBLANK(D31),C31="Pass")</formula>
+      <formula>AND(ISBLANK(D32),C32="Pass")</formula>
     </cfRule>
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(ISBLANK(D31),C31="Fail")</formula>
+      <formula>AND(ISBLANK(D32),C32="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C32 E31:E32">
+  <conditionalFormatting sqref="C32:C33 E32:E33">
     <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"Pass"</formula>
     </cfRule>
@@ -3910,7 +4158,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C596 E2:E596" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C597 E2:E597" type="list">
       <formula1>"Pass,Fail"</formula1>
       <formula2>0</formula2>
     </dataValidation>
